--- a/biology/Microbiologie/Babesia/Babesia.xlsx
+++ b/biology/Microbiologie/Babesia/Babesia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Babesia, ou Nuttallia[1], est un genre de parasites apicomplexes à l'origine de la babésiose. Ce parasite infecte les globules rouges chez de nombreux hôtes de l'embranchement des Chordés et est transmis par des tiques[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Babesia, ou Nuttallia, est un genre de parasites apicomplexes à l'origine de la babésiose. Ce parasite infecte les globules rouges chez de nombreux hôtes de l'embranchement des Chordés et est transmis par des tiques.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Découverts à l'origine par le bactériologiste roumain Victor Babeș en 1888, plus de 100 espèces de Babesia ont depuis été identifiées[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Découverts à l'origine par le bactériologiste roumain Victor Babeș en 1888, plus de 100 espèces de Babesia ont depuis été identifiées,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Pathologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de Babesia infectent les animaux vertébrés sauvages ou domestiques — et parfois les humains — provoquant la babésiose[5],[4]. Aux États-Unis, Babesia microti (en) est la souche la plus courante parmi les rares qui sont documentées comme causant des maladies chez l'humain.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de Babesia infectent les animaux vertébrés sauvages ou domestiques — et parfois les humains — provoquant la babésiose,. Aux États-Unis, Babesia microti (en) est la souche la plus courante parmi les rares qui sont documentées comme causant des maladies chez l'humain.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Babesia annae
 Babesia ardeae
